--- a/kristen_analysis_manifests.xlsx
+++ b/kristen_analysis_manifests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="274" yWindow="94" windowWidth="8091" windowHeight="2546" activeTab="2"/>
+    <workbookView xWindow="274" yWindow="94" windowWidth="8091" windowHeight="2546" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SoLo" sheetId="1" r:id="rId1"/>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -712,7 +712,7 @@
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -732,7 +732,7 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -752,7 +752,7 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B7" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/kristen_analysis_manifests.xlsx
+++ b/kristen_analysis_manifests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="274" yWindow="94" windowWidth="8091" windowHeight="2546" activeTab="1"/>
+    <workbookView xWindow="274" yWindow="94" windowWidth="8091" windowHeight="2546"/>
   </bookViews>
   <sheets>
     <sheet name="SoLo" sheetId="1" r:id="rId1"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -552,7 +552,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -569,7 +569,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -586,7 +586,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -603,7 +603,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
